--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2417461.506107023</v>
+        <v>2417461.506107024</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1092945.210511219</v>
+        <v>1436498.753104587</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9613321.913217338</v>
+        <v>9613321.913217336</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>266.6154080501261</v>
       </c>
       <c r="E2" t="n">
-        <v>329.6382101315364</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>59.7268375758684</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>6.677252069737103</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>79.98385652753986</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>179.9269603489844</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>65.51651982872603</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.8263535402513</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>194.190133807507</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>56.51458129297916</v>
       </c>
       <c r="I10" t="n">
-        <v>19.79126564166713</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>209.4552226741776</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185922</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>5.107731335946075</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>26.1560392938791</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,10 +2059,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>152.8782146791269</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>158.6625955097718</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2527,19 +2527,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>232.6540636293493</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>79.87649628048896</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065119</v>
+        <v>38.01122894619322</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>55.15761772594137</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>284.1113436488116</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3187,25 +3187,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>156.2174302415107</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396425115</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056524</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>58.70811713027407</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3904,16 +3904,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.04948275676998</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.5269768002191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4138,10 +4138,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>42.02510219382525</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>183.1796758467016</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1584.823100673951</v>
+        <v>1305.667163696621</v>
       </c>
       <c r="C2" t="n">
-        <v>1215.860583733539</v>
+        <v>1305.667163696621</v>
       </c>
       <c r="D2" t="n">
-        <v>1215.860583733539</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y2" t="n">
-        <v>1584.823100673951</v>
+        <v>1305.667163696621</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,7 +4419,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837985</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858881</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2731207858881</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>573.2376265802779</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1349.56916835588</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C5" t="n">
-        <v>980.6066514154681</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>622.3409528087177</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>622.3409528087177</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>615.3954520595142</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2460.375997155802</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1212846776635</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>120.1212846776635</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>120.1212846776635</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>120.1212846776635</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2323.103882821189</v>
+        <v>1697.251320989585</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>1328.288804049173</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274026</v>
+        <v>970.0231054424225</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>584.2348528441782</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>577.2893520949748</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548715</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548715</v>
+        <v>1697.251320989585</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548715</v>
+        <v>1697.251320989585</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,16 +4890,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>280.0282177315059</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600561</v>
+        <v>280.0282177315059</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477204</v>
+        <v>280.0282177315059</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6823320653273</v>
+        <v>280.0282177315059</v>
       </c>
       <c r="F10" t="n">
-        <v>400.6823320653273</v>
+        <v>280.0282177315059</v>
       </c>
       <c r="G10" t="n">
-        <v>231.6825318036597</v>
+        <v>111.0284174698384</v>
       </c>
       <c r="H10" t="n">
-        <v>73.93415923618983</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>280.0282177315059</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5063,7 +5063,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636251</v>
+        <v>696.4317547805649</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1003.751888060526</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383447</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324578</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954972</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="14">
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822464</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5297,7 +5297,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>618.3141514389023</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="L15" t="n">
-        <v>1232.211221195791</v>
+        <v>752.6052383825321</v>
       </c>
       <c r="M15" t="n">
-        <v>1552.546540725493</v>
+        <v>1520.973384774994</v>
       </c>
       <c r="N15" t="n">
-        <v>1897.067196363111</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O15" t="n">
-        <v>2145.820610447073</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>731.31772835508</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181194</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5537,28 +5537,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704856</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1002.792923427374</v>
+        <v>479.098332261396</v>
       </c>
       <c r="M18" t="n">
-        <v>1323.128242957076</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>2122.782055165496</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2371.535469249458</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>385.5899330013841</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C19" t="n">
-        <v>385.5899330013841</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>385.5899330013841</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>385.5899330013841</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>385.5899330013841</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247865</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383447</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>675.0071030383447</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>385.5899330013841</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="X19" t="n">
-        <v>385.5899330013841</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="Y19" t="n">
-        <v>385.5899330013841</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,31 +5765,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2334.498159098441</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>2745.388427942954</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>3128.721707800139</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>3436.0418410801</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>3765.904468744133</v>
+        <v>2107.322705390779</v>
       </c>
       <c r="O21" t="n">
-        <v>4045.444533962831</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>1114.86560735774</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336716</v>
+        <v>825.448437320779</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,7 +6023,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.976841616256</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2536.440602918915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>879.2482765610114</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C25" t="n">
-        <v>710.3120936331045</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D25" t="n">
         <v>560.1954542207687</v>
@@ -6175,22 +6175,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.92115703528</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="V25" t="n">
-        <v>1187.92115703528</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="W25" t="n">
-        <v>1107.237827459029</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="X25" t="n">
-        <v>879.2482765610114</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="Y25" t="n">
-        <v>879.2482765610114</v>
+        <v>729.1316371486756</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,19 +6236,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2626.17692130864</v>
+        <v>479.0983322613959</v>
       </c>
       <c r="L27" t="n">
-        <v>2856.140027176989</v>
+        <v>479.0983322613959</v>
       </c>
       <c r="M27" t="n">
-        <v>3176.475346706691</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>3939.352775584952</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>4608.816536887612</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>4791.460014500963</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>506.7814158330673</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>506.7814158330673</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6412,22 +6412,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>1460.521089804172</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>1460.521089804172</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>1205.836601598285</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>916.4194315613244</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>688.429880663307</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>688.429880663307</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6497,13 +6497,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614725</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>904.39166832551</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1672.759814717971</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>2122.782055165496</v>
+        <v>2107.322705390779</v>
       </c>
       <c r="O30" t="n">
-        <v>2371.535469249458</v>
+        <v>2386.862770609477</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2591.885251391686</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3924131404652</v>
+        <v>565.0010960824696</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>565.0010960824696</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>414.8844566701339</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>414.8844566701339</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>414.8844566701339</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6625,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6646,25 +6646,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1211.935115357083</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>957.2506271511957</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W31" t="n">
-        <v>667.8334571142351</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X31" t="n">
-        <v>667.8334571142351</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y31" t="n">
-        <v>447.040877970705</v>
+        <v>565.0010960824696</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,10 +6701,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>498.9056400965593</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>745.6707680030233</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6886,22 +6886,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6935,10 +6935,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,7 +6950,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899127</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>3443.999848753676</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>3751.319982033638</v>
       </c>
       <c r="N36" t="n">
-        <v>2107.322705390779</v>
+        <v>4081.182609697671</v>
       </c>
       <c r="O36" t="n">
-        <v>2386.862770609477</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4148.020508932908</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>3893.336020727022</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>3603.918850690061</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7175,10 +7175,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7208,13 +7208,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7257,19 +7257,19 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1067.429715884973</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M39" t="n">
-        <v>1387.765035414674</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N39" t="n">
-        <v>2192.176613678825</v>
+        <v>1402.926441340468</v>
       </c>
       <c r="O39" t="n">
-        <v>2440.930027762787</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324574</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954967</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7409,19 +7409,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2407.677490248249</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2556.747174450309</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L42" t="n">
-        <v>2803.512302356773</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M42" t="n">
-        <v>3571.880448749235</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N42" t="n">
-        <v>4376.292027013385</v>
+        <v>1364.414563824402</v>
       </c>
       <c r="O42" t="n">
-        <v>4655.832092232083</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P42" t="n">
-        <v>4860.854573014292</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916675</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916675</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916675</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916675</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916675</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1482.70467181369</v>
       </c>
       <c r="T43" t="n">
-        <v>4637.069157803799</v>
+        <v>1482.70467181369</v>
       </c>
       <c r="U43" t="n">
-        <v>4347.940519017357</v>
+        <v>1482.70467181369</v>
       </c>
       <c r="V43" t="n">
-        <v>4093.25603081147</v>
+        <v>1228.020183607803</v>
       </c>
       <c r="W43" t="n">
-        <v>3803.838860774509</v>
+        <v>938.6030135708428</v>
       </c>
       <c r="X43" t="n">
-        <v>3575.849309876492</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="Y43" t="n">
-        <v>3459.155393916675</v>
+        <v>710.6134626728254</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,13 +7634,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,22 +7728,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>1122.004430061687</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="M45" t="n">
-        <v>1442.339749591389</v>
+        <v>542.909971047825</v>
       </c>
       <c r="N45" t="n">
-        <v>1786.860405229007</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O45" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3459.155393916675</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C46" t="n">
-        <v>3459.155393916675</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D46" t="n">
-        <v>3459.155393916675</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1456.466672382321</v>
       </c>
       <c r="T46" t="n">
-        <v>4637.069157803799</v>
+        <v>1456.466672382321</v>
       </c>
       <c r="U46" t="n">
-        <v>4452.03918220107</v>
+        <v>1167.33803359588</v>
       </c>
       <c r="V46" t="n">
-        <v>4197.354693995183</v>
+        <v>912.6535453899926</v>
       </c>
       <c r="W46" t="n">
-        <v>3907.937523958222</v>
+        <v>623.236375353032</v>
       </c>
       <c r="X46" t="n">
-        <v>3679.947973060205</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="Y46" t="n">
-        <v>3459.155393916675</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8778,13 +8778,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,16 +9255,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,25 +9480,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>137.9476282330514</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,28 +9717,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>100.3018563276074</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>67.16197418857354</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>255.1705701355693</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776733</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>32.00833735803238</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>32.0083373580313</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>77.06777566241342</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871779</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>143.80609703159</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>140.3375291694985</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.6447836574641</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,22 +24175,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>93.47504781405618</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24415,19 +24415,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>53.58328876922806</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>206.646502056102</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518774</v>
+        <v>183.536332112196</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.3359507374362</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24886,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>2.126008749765788</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,19 +25126,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>65.33013081687852</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>192.3581855871781</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.3938331833848</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>159.8765362218207</v>
       </c>
     </row>
     <row r="41">
@@ -25792,16 +25792,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,13 +25834,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>181.8713272268333</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.0576765518756</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26071,13 +26071,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>155.895707789778</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>103.0576765518758</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491887</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="F2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="G2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="I2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="H2" t="n">
-        <v>547440.6836327917</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="K2" t="n">
         <v>547440.6836327923</v>
       </c>
-      <c r="J2" t="n">
-        <v>547440.6836327926</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327924</v>
-      </c>
       <c r="L2" t="n">
-        <v>547440.6836327917</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.6836327916</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="N2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.6836327915</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758696</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758693</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237156.8575535741</v>
+        <v>-237156.857553574</v>
       </c>
       <c r="C6" t="n">
-        <v>352811.0216609703</v>
+        <v>352811.0216609701</v>
       </c>
       <c r="D6" t="n">
-        <v>352811.0216609704</v>
+        <v>352811.0216609701</v>
       </c>
       <c r="E6" t="n">
-        <v>-70494.47248339681</v>
+        <v>-70494.47248339653</v>
       </c>
       <c r="F6" t="n">
         <v>454665.5639934995</v>
       </c>
       <c r="G6" t="n">
+        <v>454665.5639934994</v>
+      </c>
+      <c r="H6" t="n">
+        <v>454665.5639934998</v>
+      </c>
+      <c r="I6" t="n">
         <v>454665.5639934996</v>
       </c>
-      <c r="H6" t="n">
-        <v>454665.5639934993</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>278242.344800907</v>
+      </c>
+      <c r="K6" t="n">
         <v>454665.5639934998</v>
       </c>
-      <c r="J6" t="n">
-        <v>278242.3448009072</v>
-      </c>
-      <c r="K6" t="n">
-        <v>454665.5639935</v>
-      </c>
       <c r="L6" t="n">
-        <v>454665.5639934993</v>
+        <v>454665.5639934998</v>
       </c>
       <c r="M6" t="n">
-        <v>319864.5487596618</v>
+        <v>319864.5487596625</v>
       </c>
       <c r="N6" t="n">
         <v>454665.5639934995</v>
       </c>
       <c r="O6" t="n">
-        <v>454665.563993499</v>
+        <v>454665.5639935</v>
       </c>
       <c r="P6" t="n">
-        <v>454665.5639934996</v>
+        <v>454665.5639934995</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,16 +26744,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>88.06763357055684</v>
       </c>
       <c r="E2" t="n">
-        <v>52.29215994072536</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>96.44405126592675</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>205.4682868802818</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27616,19 +27616,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>333.8003134932551</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>147.8252981211505</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>101.7303012699018</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.90748812322931</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>219.594036213288</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>99.65630754881599</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1743561506711</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,7 +31376,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,10 +31610,10 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>195.5988322391989</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31622,19 +31622,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>160.7798265711914</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31926,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,28 +32066,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>231.735654311532</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>329.9823972385996</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32096,16 +32096,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961188</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>331.8073893088566</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>459.7304611826281</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>368.9552512585109</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32798,19 +32798,19 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>221.7626857090997</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33026,25 +33026,25 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>422.5825992329728</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33266,22 +33266,22 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>106.5672573837438</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>171.9901114440537</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33433,7 +33433,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33509,7 +33509,7 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>408.5315900543043</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33755,10 +33755,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33895,7 +33895,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
         <v>526.796267130444</v>
@@ -33977,22 +33977,22 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>332.6861108200253</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>158.0642534345932</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34211,16 +34211,16 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>81.51477688711896</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34229,7 +34229,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34390,7 +34390,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
         <v>76.0697047810465</v>
@@ -34445,28 +34445,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>253.807149834924</v>
       </c>
       <c r="O45" t="n">
-        <v>339.3147979156452</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>543.5994944994192</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>22.22544679131722</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>358.3594523497516</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>677.9830594988198</v>
       </c>
       <c r="O15" t="n">
         <v>251.2660748322851</v>
@@ -35744,7 +35744,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>193.2530095289825</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>807.7311234428483</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>387.2053331890758</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>226.3590068140665</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>410.7262333780737</v>
       </c>
       <c r="N24" t="n">
-        <v>569.76334796932</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>217.7374127765128</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>770.583261493193</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>454.567919643964</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>32.0083373580322</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>405.7460087235086</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,7 +37157,7 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
@@ -37166,7 +37166,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336976</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>239.1017522895571</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37625,22 +37625,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>564.9720763436103</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>409.3303282668783</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>73.91851631293798</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>429.5154391473392</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>601.8078120951442</v>
       </c>
       <c r="O45" t="n">
-        <v>590.5808727479302</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2417461.506107024</v>
+        <v>2492991.17577183</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1436498.753104587</v>
+        <v>802646.7659959728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>266.6154080501261</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>50.31344733311096</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -750,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -826,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>6.677252069737103</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>11.3146221044421</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>285.9276435608379</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>179.9269603489844</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>127.7594927339634</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>194.190133807507</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>84.29796369070955</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1303,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>56.51458129297916</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>162.3364906735235</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1528,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>48.15475000200363</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1578,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4552226741776</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1765,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>94.4459727596431</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1853,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>161.3626187354159</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>152.8782146791269</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>83.53884904317053</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>158.6625955097718</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2487,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>108.465068213675</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>232.6540636293493</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>11.35612853353237</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>38.01122894619322</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>55.15761772594137</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>105.3751775156988</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3086,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>156.2174302415107</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>12.78917898910507</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>134.4442626460251</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>5.562624396425115</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>76.56542964295322</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>58.70811713027407</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498018</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>88.99177052521314</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>16.04948275676998</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>137.6981639347285</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>42.02510219382525</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1305.667163696621</v>
+        <v>1560.797780174034</v>
       </c>
       <c r="C2" t="n">
-        <v>1305.667163696621</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>2337.536952213968</v>
       </c>
       <c r="W2" t="n">
-        <v>1695.806495672433</v>
+        <v>2337.536952213968</v>
       </c>
       <c r="X2" t="n">
-        <v>1695.806495672433</v>
+        <v>2337.536952213968</v>
       </c>
       <c r="Y2" t="n">
-        <v>1305.667163696621</v>
+        <v>1947.397620238156</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,13 +4415,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>573.2376265802779</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C4" t="n">
-        <v>573.2376265802779</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D4" t="n">
-        <v>573.2376265802779</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E4" t="n">
-        <v>573.2376265802779</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F4" t="n">
-        <v>426.3476790823676</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>573.2376265802779</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>573.2376265802779</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>573.2376265802779</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>573.2376265802779</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>573.2376265802779</v>
+        <v>489.3918856584278</v>
       </c>
       <c r="X4" t="n">
-        <v>573.2376265802779</v>
+        <v>489.3918856584278</v>
       </c>
       <c r="Y4" t="n">
-        <v>573.2376265802779</v>
+        <v>268.5993065148977</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>1857.168914859137</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1857.168914859137</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1498.903216252386</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2460.375997155802</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2107.607341885688</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>2107.607341885688</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.607341885688</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9927747426011</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1697.251320989585</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C8" t="n">
-        <v>1328.288804049173</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>970.0231054424225</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>584.2348528441782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>577.2893520949748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2435.822145058949</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520779</v>
+        <v>2182.06035969704</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520779</v>
+        <v>2182.06035969704</v>
       </c>
       <c r="W8" t="n">
-        <v>2070.717079250664</v>
+        <v>2182.06035969704</v>
       </c>
       <c r="X8" t="n">
-        <v>1697.251320989585</v>
+        <v>2182.06035969704</v>
       </c>
       <c r="Y8" t="n">
-        <v>1697.251320989585</v>
+        <v>1791.921027721229</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1851.373795869721</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2291.509718890065</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>280.0282177315059</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>280.0282177315059</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>280.0282177315059</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>280.0282177315059</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>280.0282177315059</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>111.0284174698384</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750361</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750361</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750361</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W10" t="n">
-        <v>500.8207968750361</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>500.8207968750361</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>280.0282177315059</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5036,34 +5038,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5106,31 +5108,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L12" t="n">
-        <v>696.4317547805649</v>
+        <v>493.0519035688097</v>
       </c>
       <c r="M12" t="n">
-        <v>1003.751888060526</v>
+        <v>493.0519035688097</v>
       </c>
       <c r="N12" t="n">
-        <v>1808.163466324677</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O12" t="n">
         <v>1808.163466324677</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5224,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W13" t="n">
-        <v>208.7516828383384</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="X13" t="n">
-        <v>208.7516828383384</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.7516828383384</v>
+        <v>909.3712637033467</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5269,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028562</v>
@@ -5279,7 +5281,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5297,7 +5299,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>138.7081686256434</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L15" t="n">
-        <v>752.6052383825321</v>
+        <v>860.1838454192343</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.973384774994</v>
+        <v>1180.519164948936</v>
       </c>
       <c r="N15" t="n">
-        <v>2192.176613678825</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>840.6662285267281</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1068.655779424746</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>1068.655779424746</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>1068.655779424746</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>840.6662285267281</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>840.6662285267281</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>479.098332261396</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1339.812708365287</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1684.333364002905</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2353.797125305564</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>395.2468244550147</v>
+        <v>371.7442270155261</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>576.8952892852544</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X19" t="n">
-        <v>576.8952892852544</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="Y19" t="n">
-        <v>576.8952892852544</v>
+        <v>371.7442270155261</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>146.0712180094085</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>759.9682877662972</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1080.303607295999</v>
       </c>
       <c r="N21" t="n">
-        <v>2107.322705390779</v>
+        <v>1884.71518556015</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>415.8104215925219</v>
+        <v>3858.603338895948</v>
       </c>
       <c r="C22" t="n">
-        <v>415.8104215925219</v>
+        <v>3858.603338895948</v>
       </c>
       <c r="D22" t="n">
-        <v>415.8104215925219</v>
+        <v>3858.603338895948</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>3774.220663094765</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V22" t="n">
-        <v>1114.86560735774</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="W22" t="n">
-        <v>825.448437320779</v>
+        <v>3858.603338895948</v>
       </c>
       <c r="X22" t="n">
-        <v>597.4588864227617</v>
+        <v>3858.603338895948</v>
       </c>
       <c r="Y22" t="n">
-        <v>597.4588864227617</v>
+        <v>3858.603338895948</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
         <v>904.3190116155888</v>
@@ -5984,13 +5986,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>1122.004430061687</v>
+        <v>779.5615433385053</v>
       </c>
       <c r="M24" t="n">
-        <v>1528.62340110598</v>
+        <v>1099.896862868207</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1904.308441132358</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>729.1316371486756</v>
+        <v>354.6908600059871</v>
       </c>
       <c r="C25" t="n">
-        <v>560.1954542207687</v>
+        <v>354.6908600059871</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>354.6908600059871</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>206.777766423594</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>206.777766423594</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6166,31 +6168,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035276</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1187.921157035276</v>
       </c>
       <c r="U25" t="n">
-        <v>729.1316371486756</v>
+        <v>898.7925182488345</v>
       </c>
       <c r="V25" t="n">
-        <v>729.1316371486756</v>
+        <v>644.1080300429477</v>
       </c>
       <c r="W25" t="n">
-        <v>729.1316371486756</v>
+        <v>354.6908600059871</v>
       </c>
       <c r="X25" t="n">
-        <v>729.1316371486756</v>
+        <v>354.6908600059871</v>
       </c>
       <c r="Y25" t="n">
-        <v>729.1316371486756</v>
+        <v>354.6908600059871</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6215,19 +6217,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,25 +6305,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>479.0983322613959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L27" t="n">
-        <v>479.0983322613959</v>
+        <v>343.9822193667499</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1112.350365759211</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1916.761944023362</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1916.761944023362</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2437.062565759109</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>506.7814158330673</v>
+        <v>693.7762810288178</v>
       </c>
       <c r="C28" t="n">
-        <v>506.7814158330673</v>
+        <v>524.840098100911</v>
       </c>
       <c r="D28" t="n">
-        <v>356.6647764207315</v>
+        <v>524.840098100911</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G28" t="n">
         <v>208.7516828383384</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1460.521089804172</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1460.521089804172</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>1205.836601598285</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W28" t="n">
-        <v>916.4194315613244</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X28" t="n">
-        <v>688.429880663307</v>
+        <v>705.2471179313758</v>
       </c>
       <c r="Y28" t="n">
-        <v>688.429880663307</v>
+        <v>705.2471179313758</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6457,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6464,25 +6466,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6540,25 +6542,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N30" t="n">
-        <v>2107.322705390779</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O30" t="n">
-        <v>2386.862770609477</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2591.885251391686</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.0010960824696</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C31" t="n">
-        <v>565.0010960824696</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D31" t="n">
-        <v>414.8844566701339</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>414.8844566701339</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>414.8844566701339</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V31" t="n">
-        <v>1075.21084526296</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W31" t="n">
-        <v>785.7936752259998</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7936752259998</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.0010960824696</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6695,13 +6697,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,40 +6712,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>357.0758059838404</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>603.8409338903044</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1372.209080282766</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1141.200876391121</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C34" t="n">
-        <v>972.2646934632137</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1141.200876391121</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1141.200876391121</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1141.200876391121</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>1141.200876391121</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>1141.200876391121</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y34" t="n">
-        <v>1141.200876391121</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6926,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L36" t="n">
-        <v>3443.999848753676</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M36" t="n">
-        <v>3751.319982033638</v>
+        <v>1261.869545873459</v>
       </c>
       <c r="N36" t="n">
-        <v>4081.182609697671</v>
+        <v>1673.703351905604</v>
       </c>
       <c r="O36" t="n">
-        <v>4360.722674916368</v>
+        <v>2343.167113208264</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>383.437385413378</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>383.437385413378</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>383.437385413378</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>383.437385413378</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7166,13 +7168,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7184,13 +7186,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>738.0704661731477</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M39" t="n">
-        <v>1058.405785702849</v>
+        <v>1346.840367101298</v>
       </c>
       <c r="N39" t="n">
-        <v>1402.926441340468</v>
+        <v>1691.361022738916</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.824784041576</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>244.1070389581962</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C40" t="n">
-        <v>244.1070389581962</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1421.577452736738</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1421.577452736738</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1132.448813950296</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="W40" t="n">
-        <v>531.3977182706318</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="X40" t="n">
-        <v>303.4081673726145</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y40" t="n">
-        <v>244.1070389581962</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="41">
@@ -7394,34 +7396,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7430,13 +7432,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L42" t="n">
-        <v>618.8589595388348</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M42" t="n">
-        <v>939.1942790685366</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N42" t="n">
-        <v>1364.414563824402</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O42" t="n">
-        <v>2033.878325127062</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>710.6134626728254</v>
+        <v>355.2830904386603</v>
       </c>
       <c r="C43" t="n">
-        <v>710.6134626728254</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1482.70467181369</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1482.70467181369</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1482.70467181369</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V43" t="n">
-        <v>1228.020183607803</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W43" t="n">
-        <v>938.6030135708428</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X43" t="n">
-        <v>710.6134626728254</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y43" t="n">
-        <v>710.6134626728254</v>
+        <v>536.9315552689001</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,43 +7636,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5746515181232</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L45" t="n">
-        <v>222.5746515181232</v>
+        <v>476.2498815306949</v>
       </c>
       <c r="M45" t="n">
-        <v>542.909971047825</v>
+        <v>1244.618027923156</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>1589.138683560774</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>395.2468244550147</v>
+        <v>531.109187020113</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>531.109187020113</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1456.466672382321</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1456.466672382321</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1167.33803359588</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V46" t="n">
-        <v>912.6535453899926</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W46" t="n">
-        <v>623.236375353032</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X46" t="n">
-        <v>395.2468244550147</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y46" t="n">
-        <v>395.2468244550147</v>
+        <v>531.109187020113</v>
       </c>
     </row>
   </sheetData>
@@ -8766,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8790,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9015,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,25 +9242,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>198.0008624346598</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>187.1890415492304</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,22 +9725,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>100.3018563276074</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>332.8330428391246</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>67.16197418857354</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,13 +10193,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10439,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,28 +10667,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776733</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,10 +10922,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>200.09893316142</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11160,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11397,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>119.0920710966242</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.4192454642764</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>77.06777566241342</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23653,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>191.7913796389342</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>5.884202363211955</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.6447836574641</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>62.89511360339864</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>93.47504781405618</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.02850024970255</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24415,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>53.58328876922806</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>168.4758516484049</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>183.536332112196</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>111.3359507374362</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>113.209475836396</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>65.33013081687852</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>212.9204763999321</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>32.04930581735252</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>192.3581855871781</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25597,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>121.35538034065</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>159.8765362218207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>78.25505057341469</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>181.8713272268333</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>10.91730908348387</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26071,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>155.895707789778</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491887</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491887</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821161.0254491887</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.238904999</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
         <v>547440.683632792</v>
@@ -26326,31 +26328,31 @@
         <v>547440.683632792</v>
       </c>
       <c r="G2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="H2" t="n">
         <v>547440.6836327919</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547440.6836327923</v>
       </c>
       <c r="I2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="L2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="M2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="N2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="O2" t="n">
         <v>547440.683632792</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327924</v>
       </c>
       <c r="P2" t="n">
         <v>547440.683632792</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,37 +26429,37 @@
         <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758693</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
+        <v>787.7936905759236</v>
+      </c>
+      <c r="M4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="N4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="O4" t="n">
+        <v>787.793690575832</v>
+      </c>
+      <c r="P4" t="n">
         <v>787.7936905758696</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26478,19 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26497,13 +26499,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237156.857553574</v>
+        <v>-237156.8575535742</v>
       </c>
       <c r="C6" t="n">
-        <v>352811.0216609701</v>
+        <v>352811.0216609705</v>
       </c>
       <c r="D6" t="n">
-        <v>352811.0216609701</v>
+        <v>352811.02166097</v>
       </c>
       <c r="E6" t="n">
-        <v>-70494.47248339653</v>
+        <v>-70494.47248339641</v>
       </c>
       <c r="F6" t="n">
         <v>454665.5639934995</v>
       </c>
       <c r="G6" t="n">
+        <v>454665.5639934996</v>
+      </c>
+      <c r="H6" t="n">
         <v>454665.5639934994</v>
-      </c>
-      <c r="H6" t="n">
-        <v>454665.5639934998</v>
       </c>
       <c r="I6" t="n">
         <v>454665.5639934996</v>
       </c>
       <c r="J6" t="n">
-        <v>278242.344800907</v>
+        <v>278242.3448009065</v>
       </c>
       <c r="K6" t="n">
-        <v>454665.5639934998</v>
+        <v>454665.5639934996</v>
       </c>
       <c r="L6" t="n">
-        <v>454665.5639934998</v>
+        <v>454665.5639934997</v>
       </c>
       <c r="M6" t="n">
         <v>319864.5487596625</v>
       </c>
       <c r="N6" t="n">
+        <v>454665.5639934997</v>
+      </c>
+      <c r="O6" t="n">
         <v>454665.5639934995</v>
-      </c>
-      <c r="O6" t="n">
-        <v>454665.5639935</v>
       </c>
       <c r="P6" t="n">
         <v>454665.5639934995</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>88.06763357055684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>277.4388111370239</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27546,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4682868802818</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>275.2083762321489</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>96.00272651142393</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>147.8252981211505</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>52.07248744797393</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>219.594036213288</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>132.1503566669483</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>99.65630754881599</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>62.69861478456082</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28138,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28266,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-4.430470805042811e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -29047,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29238,7 +29240,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -29806,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30514,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31142,25 +31144,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>73.87984549392672</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31613,28 +31615,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>195.5988322391989</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31838,22 +31840,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>160.7798265711914</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>304.1688341571618</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
@@ -31862,7 +31864,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -32075,28 +32077,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>329.9823972385996</v>
+        <v>299.1771211051237</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32312,25 +32314,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>331.8073893088566</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32551,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>368.9552512585109</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32788,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,16 +32964,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33025,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>118.2993748522221</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,16 +33201,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,28 +33271,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>345.0892733589616</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>171.9901114440537</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33499,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>135.8597519855729</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>408.5315900543043</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,25 +33736,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>67.99308120659367</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,25 +33885,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,13 +33973,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -33986,22 +33988,22 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>158.0642534345932</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>80.91438759718352</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34210,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>81.51477688711896</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34384,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34448,34 +34450,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>253.807149834924</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>197.9658863457833</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>543.5994944994192</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>22.22544679131722</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>652.169496417382</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>677.9830594988198</v>
+        <v>167.8354090217904</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>193.2530095289825</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>508.425239485126</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>49.34760257487141</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>226.3590068140665</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>410.7262333780737</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>190.2367983946802</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187098</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>217.7374127765128</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>188.3948885020497</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>693.0899356191818</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.0083373580322</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>262.4835500237925</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875336976</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>415.9937434668139</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37561,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>323.5710298279816</v>
@@ -37634,13 +37636,13 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>409.3303282668783</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>265.4027488227904</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>429.5154391473392</v>
+        <v>533.2935065594328</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>601.8078120951442</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>449.2319611780684</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2492991.17577183</v>
+        <v>2485974.160880119</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>802646.7659959728</v>
+        <v>640653.9432834428</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9613321.913217336</v>
+        <v>9613321.91321734</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>248.1674242677431</v>
       </c>
       <c r="V2" t="n">
-        <v>50.31344733311096</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>11.3146221044421</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>285.9276435608379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>160.2893862652917</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>127.7594927339634</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>302.3455358698704</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>84.29796369070955</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>162.3364906735235</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>26.32882004050054</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>48.15475000200363</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>247.0487268677678</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>94.4459727596431</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>108.3636623682363</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>161.3626187354159</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>83.53884904317053</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.465068213675</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.35612853353237</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>139.8365478137736</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>112.91027969415</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>105.3751775156988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274179</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3088,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>24.29718497126836</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>12.78917898910507</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>134.4442626460251</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056519</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>76.56542964295322</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498018</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>88.99177052521314</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>139.7937753284335</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>114.9309043193597</v>
       </c>
       <c r="D46" t="n">
-        <v>137.6981639347285</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1560.797780174034</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C2" t="n">
-        <v>1191.835263233623</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2446.474925091209</v>
       </c>
       <c r="V2" t="n">
-        <v>2337.536952213968</v>
+        <v>2446.474925091209</v>
       </c>
       <c r="W2" t="n">
-        <v>2337.536952213968</v>
+        <v>2093.706269821095</v>
       </c>
       <c r="X2" t="n">
-        <v>2337.536952213968</v>
+        <v>2093.706269821095</v>
       </c>
       <c r="Y2" t="n">
-        <v>1947.397620238156</v>
+        <v>1703.566937845283</v>
       </c>
     </row>
     <row r="3">
@@ -4391,10 +4391,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4415,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5993065148977</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>489.3918856584278</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>489.3918856584278</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>268.5993065148977</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1857.168914859137</v>
+        <v>1395.511531185079</v>
       </c>
       <c r="C5" t="n">
-        <v>1857.168914859137</v>
+        <v>1026.549014244667</v>
       </c>
       <c r="D5" t="n">
-        <v>1498.903216252386</v>
+        <v>1026.549014244667</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>640.7607616464231</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>633.8152608972197</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>215.8514527954065</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1857.168914859137</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4652,19 +4652,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406185</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9927747426011</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9927747426011</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.321187657107</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1264.912517821976</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.822145058949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2182.06035969704</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2182.06035969704</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.06035969704</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.06035969704</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y8" t="n">
-        <v>1791.921027721229</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036446</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,13 +5059,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>246.2867756623457</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L12" t="n">
-        <v>493.0519035688097</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M12" t="n">
-        <v>493.0519035688097</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N12" t="n">
-        <v>1138.699705022018</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2339.460577419557</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>909.3712637033467</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C13" t="n">
-        <v>860.7301020851612</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033467</v>
+        <v>736.4580480076656</v>
       </c>
       <c r="W13" t="n">
-        <v>909.3712637033467</v>
+        <v>447.040877970705</v>
       </c>
       <c r="X13" t="n">
-        <v>909.3712637033467</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.3712637033467</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,34 +5263,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>246.2867756623457</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>860.1838454192343</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1180.519164948936</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>840.6662285267281</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C16" t="n">
-        <v>671.7300455988212</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D16" t="n">
-        <v>671.7300455988212</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1068.655779424746</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1068.655779424746</v>
+        <v>1389.458025741502</v>
       </c>
       <c r="W16" t="n">
-        <v>1068.655779424746</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="X16" t="n">
-        <v>840.6662285267281</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="Y16" t="n">
-        <v>840.6662285267281</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5503,10 +5503,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,19 +5515,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5597,22 +5597,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>836.4717212750119</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1339.812708365287</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
-        <v>1684.333364002905</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>2353.797125305564</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>371.7442270155261</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5706,19 +5706,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>820.5263570570736</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>820.5263570570736</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>592.5368061590563</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>371.7442270155261</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,16 +5755,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,22 +5834,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>146.0712180094085</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L21" t="n">
-        <v>759.9682877662972</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1080.303607295999</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1884.71518556015</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3858.603338895948</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3858.603338895948</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3858.603338895948</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3774.220663094765</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4148.020508932908</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4148.020508932908</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>3858.603338895948</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>3858.603338895948</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>3858.603338895948</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,13 +6013,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6059,37 +6059,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L24" t="n">
-        <v>779.5615433385053</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1099.896862868207</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1904.308441132358</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.642871543091</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>354.6908600059871</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>354.6908600059871</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>354.6908600059871</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>206.777766423594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>206.777766423594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035276</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.921157035276</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488345</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>644.1080300429477</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>354.6908600059871</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>354.6908600059871</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>354.6908600059871</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6217,13 +6217,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6232,46 +6232,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L27" t="n">
-        <v>343.9822193667499</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1112.350365759211</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1916.761944023362</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1916.761944023362</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2437.062565759109</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>693.7762810288178</v>
+        <v>388.5827690683526</v>
       </c>
       <c r="C28" t="n">
-        <v>524.840098100911</v>
+        <v>388.5827690683526</v>
       </c>
       <c r="D28" t="n">
-        <v>524.840098100911</v>
+        <v>238.4661296560169</v>
       </c>
       <c r="E28" t="n">
-        <v>376.9270045185178</v>
+        <v>238.4661296560169</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185178</v>
+        <v>238.4661296560169</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471242</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974672</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980069</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585751</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119733</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035285</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035285</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>898.7925182488434</v>
       </c>
       <c r="V28" t="n">
-        <v>933.2366688293931</v>
+        <v>898.7925182488434</v>
       </c>
       <c r="W28" t="n">
-        <v>933.2366688293931</v>
+        <v>609.3753482118827</v>
       </c>
       <c r="X28" t="n">
-        <v>705.2471179313758</v>
+        <v>609.3753482118827</v>
       </c>
       <c r="Y28" t="n">
-        <v>705.2471179313758</v>
+        <v>388.5827690683526</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6460,25 +6460,25 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899126</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L30" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1122.004430061687</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>732.358329063101</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="C31" t="n">
-        <v>563.4221461351941</v>
+        <v>506.0709201104378</v>
       </c>
       <c r="D31" t="n">
-        <v>413.3055067228584</v>
+        <v>506.0709201104378</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>358.1578265280447</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>211.2678790301343</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U31" t="n">
-        <v>1275.130855347408</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V31" t="n">
-        <v>1020.446367141521</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W31" t="n">
-        <v>1020.446367141521</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="X31" t="n">
-        <v>1020.446367141521</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="Y31" t="n">
-        <v>914.0067938933407</v>
+        <v>675.0071030383447</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.193237080548</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822473</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K33" t="n">
-        <v>357.0758059838404</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L33" t="n">
-        <v>603.8409338903044</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1372.209080282766</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.071707946799</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1474.373659475814</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1274.453649391366</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1050.668234180872</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>761.5395953944299</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X34" t="n">
-        <v>428.9821957028613</v>
+        <v>278.8655562905256</v>
       </c>
       <c r="Y34" t="n">
-        <v>428.9821957028613</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="35">
@@ -6925,43 +6925,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L36" t="n">
-        <v>493.5013994809973</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1261.869545873459</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1673.703351905604</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2343.167113208264</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.3735683412849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>383.437385413378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>383.437385413378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>383.437385413378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>383.437385413378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X37" t="n">
-        <v>954.8146123150548</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="Y37" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7195,16 +7195,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L39" t="n">
-        <v>1026.505047571597</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1346.840367101298</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1691.361022738916</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2360.824784041576</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1421.577452736738</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1421.577452736738</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>1132.448813950296</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>877.7643257444088</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W40" t="n">
-        <v>877.7643257444088</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X40" t="n">
-        <v>649.7747748463914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7426,34 +7426,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L42" t="n">
-        <v>711.1141612171746</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1031.449480746876</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>355.2830904386603</v>
+        <v>844.1942894808744</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W43" t="n">
-        <v>985.7136853104475</v>
+        <v>1246.635333454644</v>
       </c>
       <c r="X43" t="n">
-        <v>757.7241344124302</v>
+        <v>1246.635333454644</v>
       </c>
       <c r="Y43" t="n">
-        <v>536.9315552689001</v>
+        <v>1025.842754311114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7715,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>246.2867756623457</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L45" t="n">
-        <v>476.2498815306949</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1244.618027923156</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1589.138683560774</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>531.109187020113</v>
+        <v>213.3089140050936</v>
       </c>
       <c r="C46" t="n">
-        <v>531.109187020113</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V46" t="n">
-        <v>820.5263570570736</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W46" t="n">
-        <v>531.109187020113</v>
+        <v>843.7395088768808</v>
       </c>
       <c r="X46" t="n">
-        <v>531.109187020113</v>
+        <v>615.7499579788634</v>
       </c>
       <c r="Y46" t="n">
-        <v>531.109187020113</v>
+        <v>394.9573788353333</v>
       </c>
     </row>
   </sheetData>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>378.1420803422582</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8789,10 +8789,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>405.8571761781952</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,22 +9251,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>198.0008624346598</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>187.1890415492304</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,10 +9731,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>332.8330428391246</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9968,16 +9968,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10199,22 +10199,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10916,16 +10916,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,19 +11150,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>200.09893316142</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11390,16 +11390,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>119.0920710966242</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642764</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>5.088916456060247</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>191.7913796389342</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>143.7739809555917</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>5.884202363211955</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>62.89511360339864</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24180,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>58.02850024970255</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.4758516484049</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>26.65702064960394</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>53.58328876922761</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>113.209475836396</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>85.66716743252442</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>212.9204763999321</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>32.04930581735252</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>75.26883114644286</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>121.35538034065</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>78.25505057341469</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -25848,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>146.7292230081575</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>52.31591677926815</v>
       </c>
       <c r="D46" t="n">
-        <v>10.91730908348387</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821161.0254491887</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.025449189</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821161.0254491887</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="14">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327926</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="H2" t="n">
         <v>547440.6836327919</v>
@@ -26337,25 +26337,25 @@
         <v>547440.6836327921</v>
       </c>
       <c r="J2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="N2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="K2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="P2" t="n">
         <v>547440.6836327922</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.683632792</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26429,7 +26429,7 @@
         <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758694</v>
@@ -26441,25 +26441,25 @@
         <v>787.7936905758693</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905759236</v>
+        <v>787.7936905758218</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="O4" t="n">
-        <v>787.793690575832</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26478,34 +26478,34 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237156.8575535742</v>
+        <v>-237156.8575535741</v>
       </c>
       <c r="C6" t="n">
-        <v>352811.0216609705</v>
+        <v>352811.0216609704</v>
       </c>
       <c r="D6" t="n">
-        <v>352811.02166097</v>
+        <v>352811.0216609701</v>
       </c>
       <c r="E6" t="n">
-        <v>-70494.47248339641</v>
+        <v>-71469.06374311807</v>
       </c>
       <c r="F6" t="n">
-        <v>454665.5639934995</v>
+        <v>453690.9727337784</v>
       </c>
       <c r="G6" t="n">
-        <v>454665.5639934996</v>
+        <v>453690.9727337777</v>
       </c>
       <c r="H6" t="n">
-        <v>454665.5639934994</v>
+        <v>453690.9727337777</v>
       </c>
       <c r="I6" t="n">
-        <v>454665.5639934996</v>
+        <v>453690.9727337779</v>
       </c>
       <c r="J6" t="n">
-        <v>278242.3448009065</v>
+        <v>277267.7535411852</v>
       </c>
       <c r="K6" t="n">
-        <v>454665.5639934996</v>
+        <v>453690.9727337782</v>
       </c>
       <c r="L6" t="n">
-        <v>454665.5639934997</v>
+        <v>453690.9727337777</v>
       </c>
       <c r="M6" t="n">
-        <v>319864.5487596625</v>
+        <v>318889.9574999408</v>
       </c>
       <c r="N6" t="n">
-        <v>454665.5639934997</v>
+        <v>453690.9727337779</v>
       </c>
       <c r="O6" t="n">
-        <v>454665.5639934995</v>
+        <v>453690.9727337782</v>
       </c>
       <c r="P6" t="n">
-        <v>454665.5639934995</v>
+        <v>453690.9727337781</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26813,13 +26813,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,13 +27435,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>3.056743240546155</v>
       </c>
       <c r="V2" t="n">
-        <v>277.4388111370239</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>275.2083762321489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>96.00272651142393</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>163.6333864990655</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.07248744797393</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>243.205144897451</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>79.58483420239139</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>132.1503566669483</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>62.69861478456082</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>192.2558333115942</v>
       </c>
     </row>
     <row r="11">
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-4.430470805042811e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29240,7 +29240,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-1.063451355892333e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29465,7 +29465,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>4.901797486430345e-12</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29769,7 +29769,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31135,7 +31135,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31150,7 +31150,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31372,7 +31372,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942293</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31387,7 +31387,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31615,7 +31615,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31624,7 +31624,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034983</v>
@@ -31840,31 +31840,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>304.1688341571618</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>102.4943942860912</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,16 +32086,16 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>299.1771211051237</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,16 +32253,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32317,34 +32317,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565502</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>118.2993748522221</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946974</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>345.0892733589616</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>135.8597519855729</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -33523,13 +33523,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>67.99308120659367</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>80.91438759718352</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364748</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O45" t="n">
-        <v>197.9658863457833</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>428.8615014901185</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>652.169496417382</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>286.9827555116981</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>167.8354090217904</v>
+        <v>274.515464094862</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>508.425239485126</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>49.34760257487141</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O24" t="n">
-        <v>190.2367983946802</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187098</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>188.3948885020497</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789775</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>693.0899356191818</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>262.4835500237925</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>415.9937434668139</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>265.4027488227904</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>533.2935065594328</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O45" t="n">
-        <v>449.2319611780684</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2485974.160880119</v>
+        <v>2490913.42372915</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>640653.9432834428</v>
+        <v>557774.7451117248</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9613321.91321734</v>
+        <v>9613321.913217336</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>248.1674242677431</v>
+        <v>218.3734398702018</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,13 +822,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.31590541686235</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>94.65568569260694</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>160.2893862652917</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>43.31785343914003</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>302.3455358698704</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>13.78417002079501</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>270.7773459850729</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586812</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.32882004050054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>247.0487268677678</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>61.75790661595705</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>31.13654107019667</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>108.3636623682363</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>14.73664328357051</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273989</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.8365478137736</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>199.8217265445594</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>112.91027969415</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.20191370676616</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274179</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.29718497126836</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>206.8064269214858</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>72.61518445926374</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>256.6289271138771</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>139.7937753284335</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>114.9309043193597</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404422</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1703.566937845283</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.566937845283</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2446.474925091209</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V2" t="n">
-        <v>2446.474925091209</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W2" t="n">
-        <v>2093.706269821095</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X2" t="n">
-        <v>2093.706269821095</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y2" t="n">
-        <v>1703.566937845283</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1395.511531185079</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1026.549014244667</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1026.549014244667</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>640.7607616464231</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>633.8152608972197</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>215.8514527954065</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.111371249201</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1782.111371249201</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1623.178216428726</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1623.178216428726</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1264.912517821976</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177351</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533136</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733119</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224066</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404538</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1623.178216428726</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027642003</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.821920859872</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417903</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.8857516585174</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Y10" t="n">
-        <v>701.5342164887571</v>
+        <v>728.1289842064339</v>
       </c>
     </row>
     <row r="11">
@@ -5023,19 +5023,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5044,13 +5044,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5123,19 +5123,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>97.21709146028584</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M12" t="n">
-        <v>865.5852378527472</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N12" t="n">
-        <v>1669.996816116898</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O12" t="n">
-        <v>2339.460577419557</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404652</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>736.4580480076656</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>447.040877970705</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X13" t="n">
-        <v>447.040877970705</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.040877970705</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="14">
@@ -5284,13 +5284,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5320,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,19 +5357,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>352.9248021894941</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>966.8218719463828</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606511</v>
+        <v>1735.190018338844</v>
       </c>
       <c r="N15" t="n">
-        <v>2328.464088060424</v>
+        <v>2079.710673976462</v>
       </c>
       <c r="O15" t="n">
         <v>2328.464088060424</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1467.465218971845</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1267.545208887397</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V16" t="n">
-        <v>1389.458025741502</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W16" t="n">
-        <v>1100.040855704541</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X16" t="n">
-        <v>1100.040855704541</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>879.2482765610114</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5542,10 +5542,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5594,16 +5594,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N18" t="n">
         <v>2623.573505376138</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,16 +5834,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O21" t="n">
         <v>2623.573505376138</v>
@@ -5913,31 +5913,31 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
         <v>1158.436939387592</v>
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,28 +6013,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,28 +6056,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M24" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N24" t="n">
         <v>2623.573505376138</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6150,49 +6150,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822453</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,19 +6302,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M27" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>388.5827690683526</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>388.5827690683526</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>238.4661296560169</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>238.4661296560169</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>238.4661296560169</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471242</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974672</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980069</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585751</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119733</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035285</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.921157035285</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>898.7925182488434</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V28" t="n">
-        <v>898.7925182488434</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W28" t="n">
-        <v>609.3753482118827</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X28" t="n">
-        <v>609.3753482118827</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y28" t="n">
-        <v>388.5827690683526</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="29">
@@ -6445,40 +6445,40 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899126</v>
@@ -6487,13 +6487,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,28 +6530,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M30" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>675.0071030383447</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C31" t="n">
-        <v>506.0709201104378</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D31" t="n">
-        <v>506.0709201104378</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E31" t="n">
-        <v>358.1578265280447</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>211.2678790301343</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247865</v>
+        <v>1275.130855347404</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383447</v>
+        <v>986.0022165609621</v>
       </c>
       <c r="V31" t="n">
-        <v>675.0071030383447</v>
+        <v>731.3177283550752</v>
       </c>
       <c r="W31" t="n">
-        <v>675.0071030383447</v>
+        <v>441.9005583181146</v>
       </c>
       <c r="X31" t="n">
-        <v>675.0071030383447</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="Y31" t="n">
-        <v>675.0071030383447</v>
+        <v>358.8683222506741</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080548</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822473</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6776,19 +6776,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6815,7 +6815,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1474.373659475814</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1274.453649391366</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T34" t="n">
-        <v>1050.668234180872</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U34" t="n">
-        <v>761.5395953944299</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>506.8551071885429</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>506.8551071885429</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>278.8655562905256</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905256</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,13 +7019,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E37" t="n">
         <v>97.21709146028584</v>
@@ -7098,49 +7098,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765191</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706323</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336716</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="X37" t="n">
-        <v>241.9805482336716</v>
+        <v>468.5954956259882</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>468.5954956259882</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7201,10 +7201,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,13 +7256,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7335,49 +7335,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765191</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706323</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336716</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823795</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7426,22 +7426,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,13 +7493,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>844.1942894808744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7572,49 +7572,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V43" t="n">
-        <v>1387.841167119728</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W43" t="n">
-        <v>1246.635333454644</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X43" t="n">
-        <v>1246.635333454644</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>1025.842754311114</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7642,34 +7642,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,28 +7715,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L45" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M45" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.3089140050936</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
         <v>97.21709146028584</v>
@@ -7809,49 +7809,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V46" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>843.7395088768808</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>615.7499579788634</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>394.9573788353333</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>378.1420803422582</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013773</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9017,10 +9017,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>405.8571761781952</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9494,7 +9494,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23469,19 +23469,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>5.088916456060247</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>163.9517487730801</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>78.82781133359612</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>143.7739809555917</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>271.5007091150068</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635179</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>26.65702064960394</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>52.3159167792686</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>53.58328876922761</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.507741682271</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>85.66716743252442</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>14.7411341369035</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>107.2167957226736</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>75.26883114644286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>29.89407122271388</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>146.7292230081575</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>52.31591677926815</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.39383318338585</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821161.025449189</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="K2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="L2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="O2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="P2" t="n">
         <v>547440.6836327923</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.6836327922</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.139180619</v>
       </c>
-      <c r="C4" t="n">
-        <v>139059.1391806191</v>
-      </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806192</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
@@ -26435,28 +26435,28 @@
         <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759102</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905759183</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905759105</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758692</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758218</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26487,31 +26487,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-237156.8575535741</v>
       </c>
       <c r="C6" t="n">
+        <v>352811.0216609702</v>
+      </c>
+      <c r="D6" t="n">
         <v>352811.0216609704</v>
       </c>
-      <c r="D6" t="n">
-        <v>352811.0216609701</v>
-      </c>
       <c r="E6" t="n">
-        <v>-71469.06374311807</v>
+        <v>-70591.93160936906</v>
       </c>
       <c r="F6" t="n">
-        <v>453690.9727337784</v>
+        <v>454568.1048675277</v>
       </c>
       <c r="G6" t="n">
-        <v>453690.9727337777</v>
+        <v>454568.1048675278</v>
       </c>
       <c r="H6" t="n">
-        <v>453690.9727337777</v>
+        <v>454568.1048675276</v>
       </c>
       <c r="I6" t="n">
-        <v>453690.9727337779</v>
+        <v>454568.1048675273</v>
       </c>
       <c r="J6" t="n">
-        <v>277267.7535411852</v>
+        <v>278144.8856749346</v>
       </c>
       <c r="K6" t="n">
-        <v>453690.9727337782</v>
+        <v>454568.1048675276</v>
       </c>
       <c r="L6" t="n">
-        <v>453690.9727337777</v>
+        <v>454568.1048675274</v>
       </c>
       <c r="M6" t="n">
-        <v>318889.9574999408</v>
+        <v>319767.08963369</v>
       </c>
       <c r="N6" t="n">
-        <v>453690.9727337779</v>
+        <v>454568.1048675272</v>
       </c>
       <c r="O6" t="n">
-        <v>453690.9727337782</v>
+        <v>454568.1048675272</v>
       </c>
       <c r="P6" t="n">
-        <v>453690.9727337781</v>
+        <v>454568.1048675277</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,13 +26813,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>3.056743240546155</v>
+        <v>32.85072763808748</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>120.1051426060689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>157.4819576312211</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>163.6333864990655</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>243.205144897451</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>79.58483420239139</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>98.95375469339615</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060692</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>192.2558333115942</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.063451355892333e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29465,7 +29465,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>4.901797486430345e-12</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29532,7 +29532,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29711,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -29769,7 +29769,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31141,28 +31141,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382424084</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31846,19 +31846,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>429.7571393808937</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>102.4943942860912</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -32077,10 +32077,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>131.6668188599706</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32326,7 +32326,7 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>392.6063366508803</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6063366508801</v>
+        <v>141.3402618185956</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,31 +32639,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565502</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>392.6063366508801</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,31 +32876,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>392.6063366508801</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,31 +33113,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946974</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,28 +33253,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>392.6063366508801</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,31 +33350,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,28 +33490,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,31 +33587,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,28 +33727,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,31 +33824,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,28 +33964,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,31 +34061,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961213</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.490283364748</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,28 +34201,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,31 +34298,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,28 +34438,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508801</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,31 +34535,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8615014901185</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624604</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>777.7578016411139</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>286.9827555116981</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>258.2906168981902</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
@@ -35737,10 +35737,10 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>274.515464094862</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35974,7 +35974,7 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>740.6069989111005</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N21" t="n">
-        <v>740.6069989111003</v>
+        <v>489.3409240788159</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N24" t="n">
-        <v>740.6069989111003</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N27" t="n">
-        <v>740.6069989111003</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789775</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N30" t="n">
-        <v>740.6069989111003</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006117968</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N33" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N36" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N39" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415088</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N42" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N45" t="n">
-        <v>740.6069989111003</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
